--- a/file/data.xlsx
+++ b/file/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akuro\Desktop\python\ConvertToJsonTool\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC2019_106\Desktop\game\ConvertToJsonTool\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3CB1E6-61EA-407B-99DE-7E022F047C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E88AE4-CD03-4390-BEFB-51945F1727AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>キー</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>Assets/animData/idle.tkm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -394,48 +398,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="28.09765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3790E14-DE34-4622-9345-80D5F129C17D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -457,6 +419,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3790E14-DE34-4622-9345-80D5F129C17D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="28.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
